--- a/DMS phase 1a/1a staging table/CP_POL_CLIENT_PHONE.xlsx
+++ b/DMS phase 1a/1a staging table/CP_POL_CLIENT_PHONE.xlsx
@@ -164,7 +164,7 @@
     <t>If it's a policy, show as 1, while quotation show as 0</t>
   </si>
   <si>
-    <t>What is the definition for this field, is there any sample? How to display if it's a new business policy or quotation?</t>
+    <t>Default to be display as '1'</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,12 +235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,16 +304,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +621,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +680,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -704,21 +697,21 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -753,7 +746,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -775,7 +768,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -795,7 +788,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -837,7 +830,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -857,7 +850,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -878,39 +871,39 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
